--- a/Pengujian/PENGUJIAN.xlsx
+++ b/Pengujian/PENGUJIAN.xlsx
@@ -347,13 +347,13 @@
   <dimension ref="A1:Q1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="20" topLeftCell="F979" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="20" topLeftCell="F872" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="N1013" sqref="N1013"/>
+      <selection pane="bottomRight" activeCell="N1012" sqref="N1012"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="10.5703125" customWidth="1" min="1" max="1"/>
     <col width="10.42578125" customWidth="1" style="4" min="2" max="2"/>
@@ -70392,13 +70392,13 @@
     </row>
     <row r="1011">
       <c r="N1011" s="5">
-        <f>_xlfn.STDEV.S(N2:N7,N12:N31)</f>
+        <f>_xlfn.STDEV.S(N32:N37)</f>
         <v/>
       </c>
     </row>
     <row r="1012">
       <c r="N1012" s="12">
-        <f>AVERAGE(N2:N7,N12:N31)</f>
+        <f>AVERAGE(N32:N37)</f>
         <v/>
       </c>
     </row>
@@ -70423,16 +70423,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="18" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="28.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="26.28515625" customWidth="1" min="2" max="2"/>
@@ -70568,5154 +70568,56 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25192</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>28</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (L) / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>607.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25192</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>28</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (L) / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>597.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25206</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>28</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (L) / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>664.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25206</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (L) / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>650.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25162</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>100</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (R) STA 29+169 / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>569.30</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25162</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>28</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>100</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (R) STA 29+169 / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>578.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26308</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>65</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD A31 B32 PS16 STA 31+750 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>372.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26308</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>65</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD A31 B32 PS16 STA 31+750 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>379.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26312</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>65</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD A31 B32 PS16 STA 31+750 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>390.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26312</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Class B-1 FA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>65</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD A31 B32 PS16 STA 31+750 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>362.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25236</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>28</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD P1E MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>638.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25236</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD P1E MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>625.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25213</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PILEHEAD W5H, W5I, W6A PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>552.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25213</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>28</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PILEHEAD W5H, W5I, W6A PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>565.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25217</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PILEHEAD W5H, W5I, W6A PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>633.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25217</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PILEHEAD W5H, W5I, W6A PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>624.97</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25194</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>28</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P5E IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>687.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25194</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>28</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>100</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P5E IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>670.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25199</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>28</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P5E IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>595.88</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25199</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>28</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>100</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P5E IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>602.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25219</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>28</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>100</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB SPAN 1 W IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>672.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25219</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>28</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>100</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB SPAN 1 W IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>665.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25227</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB SPAN 1 W IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>582.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25227</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>28</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB SPAN 1 W IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>592.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25228</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>28</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING E7H, E7I, EEJ7 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>654.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25228</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>28</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>100</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING E7H, E7I, EEJ7 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>645.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25232</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>28</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>100</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING E7H, E7I, EEJ7 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>572.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25232</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING E7H, E7I, EEJ7 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>578.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25210</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>28</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>100</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING W6C PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>646.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25210</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1682</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>28</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / STUFFING W6C PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>638.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26340</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>65</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / KOLOM STG 1 P3W MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>372.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26340</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>65</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / KOLOM STG 1 P3W MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>384.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26353</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>65</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / KOLOM STG 1 P3W MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>406.45</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26353</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>65</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / KOLOM STG 1 P3W MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>408.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26316</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>65</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET A1-A2E MB 24 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>370.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26316</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>65</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET A1-A2E MB 24 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>375.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26319</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>65</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET A1-A2E MB 24 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>419.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26319</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>65</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET A1-A2E MB 24 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>371.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26306</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>65</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET SPAN 5 &amp; 6 OUTER IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>406.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26306</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>65</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET SPAN 5 &amp; 6 OUTER IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>393.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26310</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>65</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET SPAN 5 &amp; 6 OUTER IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>400.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26310</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>65</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PARAPET SPAN 5 &amp; 6 OUTER IC 02 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>404.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26326</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>65</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD STG 1 P4E MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>403.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26326</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>65</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD STG 1 P4E MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>403.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26329</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>65</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD STG 1 P4E MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>376.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26329</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>65</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / PIERHEAD STG 1 P4E MB 25 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>417.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26354</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>65</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>373.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26354</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>65</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>373.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26361</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>65</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>400.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26361</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>65</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>388.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26370</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>65</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>380.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26370</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>65</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P10 - P11W MB 22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>419.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26317</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>65</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>390.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26317</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>65</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>414.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26322</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>65</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>392.41</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26322</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>2</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>65</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>390.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26341</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>65</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>384.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26341</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>65</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB P7 - P8W MB22 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>360.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26350</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>65</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>389.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26350</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>65</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>403.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26364</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>65</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>361.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26364</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3286</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1705</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>65</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>420.06</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26372</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3397</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1722</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>65</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>392.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26372</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3397</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1722</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>JALAN TOL AKSES PATIMBAN PAKET 4</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Class B-1 NFA</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>65</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>WIKA-ADHI JO / SLAB W4E - WEJ4 PS 17 / CLASS B-1 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>360.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26332</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3281</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1706</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Class B-2 FA</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>65</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / BP P2 - 16 JEMBATAN PERTAGAS STA 31+547 / CLASS B-2 SCC / AD PTB</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>393.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26332</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3281</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1706</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Class B-2 FA</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>65</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / BP P2 - 16 JEMBATAN PERTAGAS STA 31+547 / CLASS B-2 SCC / AD PTB</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>431.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26335</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3281</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1706</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Class B-2 FA</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>65</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / BP P2 - 16 JEMBATAN PERTAGAS STA 31+547 / CLASS B-2 SCC / AD PTB</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>440.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26335</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3281</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1706</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Class B-2 FA</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>65</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / BP P2 - 16 JEMBATAN PERTAGAS STA 31+547 / CLASS B-2 SCC / AD PTB</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>453.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25185</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Class E-1 FA</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>3</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>28</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (R) STA 29+169 / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25185</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1681</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Class E-1 FA</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>4</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>28</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / PILEHEAD OP 5 (R) STA 29+169 / FC 30 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>289.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26362</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Class E-1 FA</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>7</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>65</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / LC P2 BRIDGE 20 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>141.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26362</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3282</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1704</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Pembangunan Jalan Tol  Akses Patimban Paket 3</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>HUTAMA KARYA - JAYA KONSTRUKSI JOINT OPERATION</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Class E-1 FA</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>65</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>HK - JAKON JO / LC P2 BRIDGE 20 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>150.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26303</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3283</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1715</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Patimban Access Toll Road P02 (JOI 60%)</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>WASKITA - ABIPRAYA JO</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Class E-1 NFA</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>65</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>WASKITA - ABP JO / LC AKSES WARGA SENGON KE STA 27 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>124.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26303</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3283</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1715</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Patimban Access Toll Road P02 (JOI 60%)</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>WASKITA - ABIPRAYA JO</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Class E-1 NFA</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>65</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>WASKITA - ABP JO / LC AKSES WARGA SENGON KE STA 27 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>121.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26305</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3283</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1715</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Patimban Access Toll Road P02 (JOI 60%)</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>WASKITA - ABIPRAYA JO</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Class E-1 NFA</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>65</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>WASKITA - ABP JO / LC AKSES WARGA SENGON KE STA 27 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>137.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/26305</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/11-2025/3283</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SPP/PTB/11-2025/1715</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Patimban Access Toll Road P02 (JOI 60%)</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>WASKITA - ABIPRAYA JO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Class E-1 NFA</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>7</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>65</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>WASKITA - ABP JO / LC AKSES WARGA SENGON KE STA 27 / CLASS E / AD PTB</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>154.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25191</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/10-2025/3255</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SPP/PTB/10-2025/1673</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Jembatan Cipunegara</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>PT. INTAN CIPTA PERDANA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Fc-20 NFA</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>3</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>28</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>100</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>ICP / TROTOAR / FC 20 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>363.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>DOCKET/PTB/11-2025/25191</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SO/DIR2/DV2-4/10-2025/3255</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SPP/PTB/10-2025/1673</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Jembatan Cipunegara</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PT. INTAN CIPTA PERDANA</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Fc-20 NFA</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>4</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>28</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Silinder 15 x 30 cm</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>ICP / TROTOAR / FC 20 / AD PTB</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>366.92</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -75737,7 +70639,7 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="30.42578125" customWidth="1" style="2" min="1" max="1"/>
     <col width="16.28515625" customWidth="1" style="3" min="2" max="2"/>

--- a/Pengujian/PENGUJIAN.xlsx
+++ b/Pengujian/PENGUJIAN.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -57,20 +57,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -141,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -181,8 +167,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +363,10 @@
   <dimension ref="A1:Q1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="20" topLeftCell="F991" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="20" topLeftCell="F978" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="N1013" sqref="N1013"/>
+      <selection pane="bottomRight" activeCell="N1011" sqref="N1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -404,8 +388,8 @@
     <col width="9.85546875" customWidth="1" style="3" min="15" max="15"/>
     <col width="5.5703125" customWidth="1" style="3" min="16" max="16"/>
     <col width="10.28515625" customWidth="1" style="12" min="17" max="17"/>
-    <col width="11.5703125" customWidth="1" style="3" min="18" max="52"/>
-    <col width="11.5703125" customWidth="1" style="3" min="53" max="16384"/>
+    <col width="11.5703125" customWidth="1" style="3" min="18" max="60"/>
+    <col width="11.5703125" customWidth="1" style="3" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8">
@@ -497,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="n">
-        <v>16288</v>
+        <v>16560</v>
       </c>
       <c r="B2" s="12">
         <f>ODOO!H2</f>
@@ -844,7 +828,7 @@
         <v/>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11">
         <f>A6+1</f>
         <v/>
@@ -70426,17 +70410,17 @@
     </row>
     <row r="1011">
       <c r="N1011" s="11">
-        <f>_xlfn.STDEV.S(N2:N5)</f>
+        <f>_xlfn.STDEV.S(N108:N111)</f>
         <v/>
       </c>
       <c r="O1011" s="11">
-        <f>_xlfn.STDEV.S(N6:N43)</f>
+        <f>_xlfn.STDEV.S(N2:N7)</f>
         <v/>
       </c>
     </row>
     <row r="1012">
       <c r="N1012" s="13">
-        <f>AVERAGE(N6:N43)</f>
+        <f>AVERAGE(N42:N47)</f>
         <v/>
       </c>
     </row>
@@ -70461,13 +70445,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V203"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="18" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="18" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -70646,11 +70630,11 @@
     <row r="39"/>
     <row r="40"/>
     <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
@@ -70674,408 +70658,197 @@
     <row r="67"/>
     <row r="68"/>
     <row r="69"/>
-    <row r="70" customFormat="1" s="15">
-      <c r="R70" s="15" t="n"/>
-    </row>
-    <row r="71" customFormat="1" s="15">
-      <c r="R71" s="15" t="n"/>
-    </row>
-    <row r="72" customFormat="1" s="15">
-      <c r="R72" s="15" t="n"/>
-    </row>
-    <row r="73" customFormat="1" s="15">
-      <c r="R73" s="15" t="n"/>
-    </row>
-    <row r="74" customFormat="1" s="15">
-      <c r="R74" s="15" t="n"/>
-    </row>
-    <row r="75" customFormat="1" s="15">
-      <c r="R75" s="15" t="n"/>
-    </row>
-    <row r="76" customFormat="1" s="15">
-      <c r="R76" s="15" t="n"/>
-    </row>
-    <row r="77" customFormat="1" s="15">
-      <c r="R77" s="15" t="n"/>
-    </row>
-    <row r="78" customFormat="1" s="15">
-      <c r="R78" s="15" t="n"/>
-    </row>
-    <row r="79" customFormat="1" s="15">
-      <c r="R79" s="15" t="n"/>
-    </row>
-    <row r="80" customFormat="1" s="15">
-      <c r="R80" s="15" t="n"/>
-    </row>
-    <row r="81" customFormat="1" s="15">
-      <c r="R81" s="15" t="n"/>
-    </row>
-    <row r="82" customFormat="1" s="15">
-      <c r="R82" s="15" t="n"/>
-    </row>
-    <row r="83" customFormat="1" s="15">
-      <c r="R83" s="15" t="n"/>
-    </row>
-    <row r="84" customFormat="1" s="15">
-      <c r="R84" s="15" t="n"/>
-    </row>
-    <row r="85" customFormat="1" s="15">
-      <c r="R85" s="15" t="n"/>
-    </row>
-    <row r="86" customFormat="1" s="15">
-      <c r="R86" s="15" t="n"/>
-    </row>
-    <row r="87" customFormat="1" s="15">
-      <c r="R87" s="15" t="n"/>
-    </row>
-    <row r="88" customFormat="1" s="16">
-      <c r="R88" s="16" t="n"/>
-    </row>
-    <row r="89" customFormat="1" s="16">
-      <c r="R89" s="16" t="n"/>
-    </row>
-    <row r="90" customFormat="1" s="16">
-      <c r="R90" s="16" t="n"/>
-    </row>
-    <row r="91" customFormat="1" s="16">
-      <c r="R91" s="16" t="n"/>
-    </row>
-    <row r="92" customFormat="1" s="16">
-      <c r="R92" s="16" t="n"/>
-    </row>
-    <row r="93" customFormat="1" s="16">
-      <c r="R93" s="16" t="n"/>
-    </row>
-    <row r="94" customFormat="1" s="16">
-      <c r="R94" s="16" t="n"/>
-    </row>
-    <row r="95" customFormat="1" s="16">
-      <c r="R95" s="16" t="n"/>
-    </row>
-    <row r="96" customFormat="1" s="16">
-      <c r="R96" s="16" t="n"/>
-    </row>
-    <row r="97" customFormat="1" s="16">
-      <c r="R97" s="16" t="n"/>
-    </row>
-    <row r="98" customFormat="1" s="16">
-      <c r="R98" s="16" t="n"/>
-    </row>
-    <row r="99" customFormat="1" s="16">
-      <c r="R99" s="16" t="n"/>
-    </row>
-    <row r="100" customFormat="1" s="16">
-      <c r="R100" s="16" t="n"/>
-    </row>
-    <row r="101" customFormat="1" s="16">
-      <c r="R101" s="16" t="n"/>
-    </row>
-    <row r="102" customFormat="1" s="16">
-      <c r="R102" s="16" t="n"/>
-    </row>
-    <row r="103" customFormat="1" s="16">
-      <c r="R103" s="16" t="n"/>
-    </row>
-    <row r="104" customFormat="1" s="16">
-      <c r="R104" s="16" t="n"/>
-    </row>
-    <row r="105" customFormat="1" s="16">
-      <c r="R105" s="16" t="n"/>
-    </row>
-    <row r="106" customFormat="1" s="16">
-      <c r="R106" s="16" t="n"/>
-    </row>
-    <row r="107" customFormat="1" s="16">
-      <c r="R107" s="16" t="n"/>
-    </row>
-    <row r="108" customFormat="1" s="16">
-      <c r="R108" s="16" t="n"/>
-    </row>
-    <row r="109" customFormat="1" s="16">
-      <c r="R109" s="16" t="n"/>
-    </row>
-    <row r="110" customFormat="1" s="16">
-      <c r="R110" s="16" t="n"/>
-    </row>
-    <row r="111" customFormat="1" s="16">
-      <c r="R111" s="16" t="n"/>
-    </row>
-    <row r="112" customFormat="1" s="16">
-      <c r="R112" s="16" t="n"/>
-    </row>
-    <row r="113" customFormat="1" s="16">
-      <c r="R113" s="16" t="n"/>
-    </row>
-    <row r="114" customFormat="1" s="16">
-      <c r="R114" s="16" t="n"/>
-    </row>
-    <row r="115" customFormat="1" s="16">
-      <c r="R115" s="16" t="n"/>
-    </row>
-    <row r="116" customFormat="1" s="16">
-      <c r="R116" s="16" t="n"/>
-    </row>
-    <row r="117" customFormat="1" s="16">
-      <c r="R117" s="16" t="n"/>
-    </row>
-    <row r="118" customFormat="1" s="16">
-      <c r="R118" s="16" t="n"/>
-    </row>
-    <row r="119" customFormat="1" s="16">
-      <c r="R119" s="16" t="n"/>
-    </row>
-    <row r="120" customFormat="1" s="16">
-      <c r="R120" s="16" t="n"/>
-    </row>
-    <row r="121" customFormat="1" s="16">
-      <c r="R121" s="16" t="n"/>
-    </row>
-    <row r="122" customFormat="1" s="16">
-      <c r="R122" s="16" t="n"/>
-    </row>
-    <row r="123" customFormat="1" s="16">
-      <c r="R123" s="16" t="n"/>
-    </row>
-    <row r="124" customFormat="1" s="16">
-      <c r="R124" s="16" t="n"/>
-    </row>
-    <row r="125" customFormat="1" s="16">
-      <c r="R125" s="16" t="n"/>
-    </row>
-    <row r="126" customFormat="1" s="16">
-      <c r="R126" s="16" t="n"/>
-    </row>
-    <row r="127" customFormat="1" s="16">
-      <c r="R127" s="16" t="n"/>
-    </row>
-    <row r="128" customFormat="1" s="16">
-      <c r="R128" s="16" t="n"/>
-    </row>
-    <row r="129" customFormat="1" s="16">
-      <c r="R129" s="16" t="n"/>
-    </row>
-    <row r="130" customFormat="1" s="16">
-      <c r="R130" s="16" t="n"/>
-    </row>
-    <row r="131" customFormat="1" s="16">
-      <c r="R131" s="16" t="n"/>
-    </row>
-    <row r="132" customFormat="1" s="16">
-      <c r="R132" s="16" t="n"/>
-    </row>
-    <row r="133" customFormat="1" s="16">
-      <c r="R133" s="16" t="n"/>
-    </row>
-    <row r="134" customFormat="1" s="16">
-      <c r="R134" s="16" t="n"/>
-    </row>
-    <row r="135" customFormat="1" s="16">
-      <c r="R135" s="16" t="n"/>
-    </row>
-    <row r="136" customFormat="1" s="16">
-      <c r="R136" s="16" t="n"/>
-    </row>
-    <row r="137" customFormat="1" s="16">
-      <c r="R137" s="16" t="n"/>
-    </row>
-    <row r="138" customFormat="1" s="16">
-      <c r="R138" s="16" t="n"/>
-    </row>
-    <row r="139" customFormat="1" s="16">
-      <c r="R139" s="16" t="n"/>
-    </row>
-    <row r="140" customFormat="1" s="16">
-      <c r="R140" s="16" t="n"/>
-    </row>
-    <row r="141" customFormat="1" s="16">
-      <c r="R141" s="16" t="n"/>
-    </row>
-    <row r="142" customFormat="1" s="16">
-      <c r="R142" s="16" t="n"/>
-    </row>
-    <row r="143" customFormat="1" s="16">
-      <c r="R143" s="16" t="n"/>
-    </row>
-    <row r="144" customFormat="1" s="16">
-      <c r="R144" s="16" t="n"/>
-    </row>
-    <row r="145" customFormat="1" s="16">
-      <c r="R145" s="16" t="n"/>
-    </row>
-    <row r="146" customFormat="1" s="16">
-      <c r="R146" s="16" t="n"/>
-    </row>
-    <row r="147" customFormat="1" s="16">
-      <c r="R147" s="16" t="n"/>
-    </row>
-    <row r="148" customFormat="1" s="16">
-      <c r="R148" s="16" t="n"/>
-    </row>
-    <row r="149" customFormat="1" s="16">
-      <c r="R149" s="16" t="n"/>
-    </row>
-    <row r="150" customFormat="1" s="16">
-      <c r="R150" s="16" t="n"/>
-    </row>
-    <row r="151" customFormat="1" s="16">
-      <c r="R151" s="16" t="n"/>
-    </row>
-    <row r="152" customFormat="1" s="16">
-      <c r="R152" s="16" t="n"/>
-    </row>
-    <row r="153" customFormat="1" s="16">
-      <c r="R153" s="16" t="n"/>
-    </row>
-    <row r="154" customFormat="1" s="16">
-      <c r="R154" s="16" t="n"/>
-    </row>
-    <row r="155" customFormat="1" s="16">
-      <c r="R155" s="16" t="n"/>
-    </row>
-    <row r="156" customFormat="1" s="16">
-      <c r="R156" s="16" t="n"/>
-    </row>
-    <row r="157" customFormat="1" s="16">
-      <c r="R157" s="16" t="n"/>
-    </row>
-    <row r="158" customFormat="1" s="16">
-      <c r="R158" s="16" t="n"/>
-    </row>
-    <row r="159" customFormat="1" s="16">
-      <c r="R159" s="16" t="n"/>
-    </row>
-    <row r="160" customFormat="1" s="16">
-      <c r="R160" s="16" t="n"/>
-    </row>
-    <row r="161" customFormat="1" s="16">
-      <c r="R161" s="16" t="n"/>
-    </row>
-    <row r="162" customFormat="1" s="16">
-      <c r="R162" s="16" t="n"/>
-    </row>
-    <row r="163" customFormat="1" s="16">
-      <c r="R163" s="16" t="n"/>
-    </row>
-    <row r="164" customFormat="1" s="16">
-      <c r="R164" s="16" t="n"/>
-    </row>
-    <row r="165" customFormat="1" s="16">
-      <c r="R165" s="16" t="n"/>
-    </row>
-    <row r="166" customFormat="1" s="16">
-      <c r="R166" s="16" t="n"/>
-    </row>
-    <row r="167" customFormat="1" s="16">
-      <c r="R167" s="16" t="n"/>
-    </row>
-    <row r="168" customFormat="1" s="16">
-      <c r="R168" s="16" t="n"/>
-    </row>
-    <row r="169" customFormat="1" s="16">
-      <c r="R169" s="16" t="n"/>
-    </row>
-    <row r="170" customFormat="1" s="16">
-      <c r="R170" s="16" t="n"/>
-    </row>
-    <row r="171" customFormat="1" s="16">
-      <c r="R171" s="16" t="n"/>
-    </row>
-    <row r="172" customFormat="1" s="16">
-      <c r="R172" s="16" t="n"/>
-    </row>
-    <row r="173" customFormat="1" s="16">
-      <c r="R173" s="16" t="n"/>
-    </row>
-    <row r="174" customFormat="1" s="16">
-      <c r="R174" s="16" t="n"/>
-    </row>
-    <row r="175" customFormat="1" s="16">
-      <c r="R175" s="16" t="n"/>
-    </row>
-    <row r="176" customFormat="1" s="16">
-      <c r="R176" s="16" t="n"/>
-    </row>
-    <row r="177" customFormat="1" s="16">
-      <c r="R177" s="16" t="n"/>
-    </row>
-    <row r="178" customFormat="1" s="16">
-      <c r="R178" s="16" t="n"/>
-    </row>
-    <row r="179" customFormat="1" s="16">
-      <c r="R179" s="16" t="n"/>
-    </row>
-    <row r="180" customFormat="1" s="16">
-      <c r="R180" s="16" t="n"/>
-    </row>
-    <row r="181" customFormat="1" s="16">
-      <c r="R181" s="16" t="n"/>
-    </row>
-    <row r="182" customFormat="1" s="16">
-      <c r="R182" s="16" t="n"/>
-    </row>
-    <row r="183" customFormat="1" s="16">
-      <c r="R183" s="16" t="n"/>
-    </row>
-    <row r="184" customFormat="1" s="16">
-      <c r="R184" s="16" t="n"/>
-    </row>
-    <row r="185" customFormat="1" s="16">
-      <c r="R185" s="16" t="n"/>
-    </row>
-    <row r="186" customFormat="1" s="16">
-      <c r="R186" s="16" t="n"/>
-    </row>
-    <row r="187" customFormat="1" s="16">
-      <c r="R187" s="16" t="n"/>
-    </row>
-    <row r="188" customFormat="1" s="16">
-      <c r="R188" s="16" t="n"/>
-    </row>
-    <row r="189" customFormat="1" s="16">
-      <c r="R189" s="16" t="n"/>
-    </row>
-    <row r="190" customFormat="1" s="16">
-      <c r="R190" s="16" t="n"/>
-    </row>
-    <row r="191" customFormat="1" s="16">
-      <c r="R191" s="16" t="n"/>
-    </row>
-    <row r="192" customFormat="1" s="16">
-      <c r="R192" s="16" t="n"/>
-    </row>
-    <row r="193" customFormat="1" s="16">
-      <c r="R193" s="16" t="n"/>
-    </row>
-    <row r="194" customFormat="1" s="16">
-      <c r="R194" s="16" t="n"/>
-    </row>
-    <row r="195" customFormat="1" s="16">
-      <c r="R195" s="16" t="n"/>
-    </row>
-    <row r="196" customFormat="1" s="16">
-      <c r="R196" s="16" t="n"/>
-    </row>
-    <row r="197" customFormat="1" s="16">
-      <c r="R197" s="16" t="n"/>
-    </row>
-    <row r="198" customFormat="1" s="16">
-      <c r="R198" s="16" t="n"/>
-    </row>
-    <row r="199" customFormat="1" s="16">
-      <c r="R199" s="16" t="n"/>
-    </row>
-    <row r="200" customFormat="1" s="16">
-      <c r="R200" s="16" t="n"/>
-    </row>
-    <row r="201" customFormat="1" s="16">
-      <c r="R201" s="16" t="n"/>
-    </row>
-    <row r="202" customFormat="1" s="16">
-      <c r="R202" s="16" t="n"/>
-    </row>
-    <row r="203" customFormat="1" s="16">
-      <c r="R203" s="16" t="n"/>
-    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/Pengujian/PENGUJIAN.xlsx
+++ b/Pengujian/PENGUJIAN.xlsx
@@ -127,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -167,6 +167,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +367,10 @@
   <dimension ref="A1:Q1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="20" topLeftCell="F978" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="20" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="N1011" sqref="N1011"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -388,8 +392,8 @@
     <col width="9.85546875" customWidth="1" style="3" min="15" max="15"/>
     <col width="5.5703125" customWidth="1" style="3" min="16" max="16"/>
     <col width="10.28515625" customWidth="1" style="12" min="17" max="17"/>
-    <col width="11.5703125" customWidth="1" style="3" min="18" max="60"/>
-    <col width="11.5703125" customWidth="1" style="3" min="61" max="16384"/>
+    <col width="11.5703125" customWidth="1" style="3" min="18" max="64"/>
+    <col width="11.5703125" customWidth="1" style="3" min="65" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8">
@@ -481,7 +485,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="n">
-        <v>16560</v>
+        <v>16819</v>
       </c>
       <c r="B2" s="12">
         <f>ODOO!H2</f>
@@ -70410,7 +70414,7 @@
     </row>
     <row r="1011">
       <c r="N1011" s="11">
-        <f>_xlfn.STDEV.S(N108:N111)</f>
+        <f>_xlfn.STDEV.S(N240:N253)</f>
         <v/>
       </c>
       <c r="O1011" s="11">
@@ -70445,13 +70449,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="18" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="18" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="R109" sqref="R109"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -70462,7 +70466,7 @@
     <col hidden="1" width="42.140625" customWidth="1" min="4" max="4"/>
     <col width="51.140625" customWidth="1" min="5" max="5"/>
     <col width="11.7109375" customWidth="1" min="6" max="6"/>
-    <col width="10.28515625" customWidth="1" min="8" max="8"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
     <col width="8.28515625" customWidth="1" min="9" max="9"/>
     <col hidden="1" width="16.7109375" customWidth="1" min="10" max="10"/>
     <col hidden="1" width="7.28515625" customWidth="1" min="11" max="11"/>
@@ -70514,7 +70518,7 @@
           <t>No. Urut</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>Tanggal Rencana</t>
         </is>
@@ -70590,265 +70594,35 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
+    <row r="2">
+      <c r="H2" s="16" t="n"/>
+    </row>
+    <row r="3">
+      <c r="H3" s="16" t="n"/>
+    </row>
+    <row r="4">
+      <c r="H4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="H5" s="16" t="n"/>
+    </row>
+    <row r="6">
+      <c r="H6" s="16" t="n"/>
+    </row>
+    <row r="7">
+      <c r="H7" s="16" t="n"/>
+    </row>
+    <row r="8">
+      <c r="H8" s="16" t="n"/>
+    </row>
+    <row r="9">
+      <c r="H9" s="16" t="n"/>
+    </row>
     <row r="42" ht="13.5" customHeight="1"/>
     <row r="43" ht="13.5" customHeight="1"/>
     <row r="44" ht="13.5" customHeight="1"/>
     <row r="45" ht="13.5" customHeight="1"/>
     <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
